--- a/Dev-Ops/Documents/DevOps.xlsx
+++ b/Dev-Ops/Documents/DevOps.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Dev-Ops\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74BFC93-E9AD-40A3-93F9-3645AE14B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2162,14 +2168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2244,129 +2244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2396,7 +2275,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2415,188 +2294,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2604,245 +2303,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2859,20 +2327,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2881,20 +2340,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2907,85 +2359,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3001,13 +2430,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Ảnh 2"/>
+        <xdr:cNvPr id="3" name="Ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3039,13 +2474,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Ảnh 3"/>
+        <xdr:cNvPr id="4" name="Ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3077,13 +2518,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Ảnh 4"/>
+        <xdr:cNvPr id="5" name="Ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3355,75 +2802,75 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="1"/>
-    <col min="2" max="2" width="39.5733333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="50" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="1"/>
+    <col min="7" max="7" width="49.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" spans="1:3">
+    <row r="1" spans="1:7" ht="90">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:3">
+    <row r="2" spans="1:7" ht="75">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:3">
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:3">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="178.5" spans="1:3">
+    <row r="5" spans="1:7" ht="240">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3434,51 +2881,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:3">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="229.5" spans="1:3">
+    <row r="7" spans="1:7" ht="300">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="245.25" customHeight="1" spans="1:3">
+    <row r="8" spans="1:7" ht="245.25" customHeight="1">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="223.5" customHeight="1" spans="1:3">
+    <row r="9" spans="1:7" ht="223.5" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="204" spans="1:4">
+    <row r="10" spans="1:7" ht="300">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3488,11 +2935,11 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="2:3">
+    <row r="11" spans="1:7" ht="30">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3500,7 +2947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="102" spans="2:3">
+    <row r="12" spans="1:7" ht="150">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3508,7 +2955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="140.25" spans="2:3">
+    <row r="13" spans="1:7" ht="180">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -3516,14 +2963,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="288.75" customHeight="1" spans="2:7">
+    <row r="14" spans="1:7" ht="288.75" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3536,7 +2983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="38.25" spans="2:3">
+    <row r="15" spans="1:7" ht="60">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -3544,77 +2991,73 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="240.75" customHeight="1" spans="2:2">
+    <row r="16" spans="1:7" ht="240.75" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="153" spans="2:3">
+    <row r="17" spans="2:3" ht="180">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="153" spans="2:3">
+    <row r="18" spans="2:3" ht="180">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="18" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId2" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="89.25" spans="1:2">
+    <row r="1" spans="1:2" ht="135">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="178.5" spans="1:2">
+    <row r="2" spans="1:2" ht="210">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -3624,41 +3067,39 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="72.5733333333333" style="16" customWidth="1"/>
-    <col min="2" max="2" width="139.573333333333" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="139.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="26.25">
+      <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" ht="127.5" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:2" ht="150">
+      <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -3666,7 +3107,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -3674,236 +3115,242 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" ht="24" spans="1:2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:2" ht="26.25">
+      <c r="A8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" s="15" customFormat="1" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="B8" s="25"/>
+    </row>
+    <row r="9" spans="1:2" s="12" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" ht="30" spans="1:2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:2" s="12" customFormat="1" ht="47.25">
+      <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1" ht="51" spans="1:2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:2" s="12" customFormat="1" ht="60">
+      <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" s="15" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:2" s="12" customFormat="1" ht="15">
+      <c r="A21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" ht="24" spans="1:2">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:2" ht="26.25">
+      <c r="A25" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26" ht="255" spans="1:2">
-      <c r="A26" s="16" t="s">
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:2" ht="330">
+      <c r="A26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:2" ht="120">
+      <c r="A27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:2" ht="105">
+      <c r="A28" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" ht="25.5" spans="1:2">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="26"/>
+      <c r="B35" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B37" s="24" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="26"/>
+      <c r="B37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B38" s="8" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B39" s="24" t="s">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="26"/>
+      <c r="B39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A40" s="26"/>
+      <c r="B40" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3915,39 +3362,35 @@
     <mergeCell ref="A34:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="60.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -3972,27 +3415,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="49.14" customWidth="1"/>
-    <col min="3" max="3" width="69.5733333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1" spans="1:2">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
@@ -4000,228 +3441,228 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="180">
+      <c r="A3" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:3" ht="150">
+      <c r="A4" s="27"/>
+      <c r="B4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="27"/>
       <c r="B7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:3" ht="90">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:3" ht="165">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:3" ht="105">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="C11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="1:3" ht="90">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:3" ht="270">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:3" ht="210">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="1:3" ht="120">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="1:6" ht="90">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="27"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="27"/>
+      <c r="B20" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="27"/>
       <c r="B21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:6">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:6">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="27"/>
       <c r="B25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="27"/>
       <c r="B27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:6" ht="90">
+      <c r="A28" s="27"/>
+      <c r="B28" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:6" ht="180">
+      <c r="A29" s="27"/>
+      <c r="B29" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="6" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="180">
+      <c r="A31" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8" t="s">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="75">
+      <c r="A32" s="27"/>
+      <c r="B32" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="27"/>
+      <c r="B33" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:3" ht="150">
+      <c r="A36" s="27"/>
+      <c r="B36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4232,59 +3673,53 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" spans="1:2">
+    <row r="1" spans="1:2" ht="195">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -4292,7 +3727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" ht="76.5" spans="1:2">
+    <row r="2" spans="1:2" ht="90">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -4300,7 +3735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" ht="153" spans="1:2">
+    <row r="3" spans="1:2" ht="180">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -4310,6 +3745,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>